--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Akhil\PodTest\Clients\TestTribe\JavaSeleniumBootcamp\TTTSeleniumDemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE32243-E0F9-4992-AE0E-62AABBBDB04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9EFA53-EFC7-4DF4-94B1-EBBA400CD2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -377,7 +377,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,6 +402,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Akhil\PodTest\Clients\TestTribe\JavaSeleniumBootcamp\TTTSeleniumDemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9EFA53-EFC7-4DF4-94B1-EBBA400CD2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B7418-E152-4886-88B1-E94460441F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>BrowserName</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -374,57 +383,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E707BC80-4093-4B64-B09F-0BDB64A1F404}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{0F5DEF97-CDE5-4622-9F33-E657DB1FC95F}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{C1587C10-8756-4141-B252-A52EA6CF9D66}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E707BC80-4093-4B64-B09F-0BDB64A1F404}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0F5DEF97-CDE5-4622-9F33-E657DB1FC95F}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{C1587C10-8756-4141-B252-A52EA6CF9D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Akhil\PodTest\Clients\TestTribe\JavaSeleniumBootcamp\TTTSeleniumDemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B7418-E152-4886-88B1-E94460441F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB4127-ECC5-4E48-8947-3E3EED3E3A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -42,19 +42,10 @@
     <t>Mix and match chuck taylor all star</t>
   </si>
   <si>
-    <t>siddhihinge@mailinator.com</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>BrowserName</t>
   </si>
   <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -383,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,7 +390,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -413,7 +404,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -422,28 +413,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E707BC80-4093-4B64-B09F-0BDB64A1F404}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0F5DEF97-CDE5-4622-9F33-E657DB1FC95F}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{C1587C10-8756-4141-B252-A52EA6CF9D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
